--- a/forms/app/malnutrition_followup.xlsx
+++ b/forms/app/malnutrition_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="435">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -183,6 +183,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -252,9 +255,6 @@
     <t xml:space="preserve">weight_from_assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">../inputs/t_weight_from_assessment</t>
   </si>
   <si>
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Quelle est la tâche à effectuer ?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">s_medecines_to_give</t>
@@ -2035,17 +2035,17 @@
   </sheetPr>
   <dimension ref="A1:IZ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C148" activeCellId="0" sqref="C148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D126" activeCellId="0" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="74.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="47.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.85"/>
@@ -4358,8 +4358,12 @@
       <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -4375,41 +4379,41 @@
     </row>
     <row r="13" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4420,10 +4424,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -4689,13 +4693,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -4963,13 +4967,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -5235,13 +5239,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -5504,7 +5508,7 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -5524,7 +5528,7 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -5544,16 +5548,16 @@
     </row>
     <row r="20" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -5572,16 +5576,16 @@
     </row>
     <row r="21" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -5600,7 +5604,7 @@
     </row>
     <row r="22" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>80</v>
@@ -5630,7 +5634,7 @@
     </row>
     <row r="23" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>84</v>
@@ -5660,7 +5664,7 @@
     </row>
     <row r="24" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>88</v>
@@ -5932,16 +5936,16 @@
     </row>
     <row r="25" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -6204,16 +6208,16 @@
     </row>
     <row r="26" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -6476,7 +6480,7 @@
     </row>
     <row r="27" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>96</v>
@@ -6754,7 +6758,7 @@
     </row>
     <row r="28" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>103</v>
@@ -7026,7 +7030,7 @@
     </row>
     <row r="29" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>107</v>
@@ -7065,7 +7069,7 @@
     </row>
     <row r="30" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>111</v>
@@ -7104,7 +7108,7 @@
     </row>
     <row r="31" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>113</v>
@@ -7143,7 +7147,7 @@
     </row>
     <row r="32" s="19" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>115</v>
@@ -7184,7 +7188,7 @@
     </row>
     <row r="33" s="12" customFormat="true" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>119</v>
@@ -7456,7 +7460,7 @@
     </row>
     <row r="34" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>121</v>
@@ -7520,7 +7524,7 @@
     </row>
     <row r="35" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>123</v>
@@ -7584,7 +7588,7 @@
     </row>
     <row r="36" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>125</v>
@@ -7852,7 +7856,7 @@
     </row>
     <row r="37" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>127</v>
@@ -8120,7 +8124,7 @@
     </row>
     <row r="38" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>129</v>
@@ -8388,7 +8392,7 @@
     </row>
     <row r="39" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>131</v>
@@ -8746,7 +8750,7 @@
     </row>
     <row r="42" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -9006,7 +9010,7 @@
     </row>
     <row r="48" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -9464,7 +9468,7 @@
     </row>
     <row r="59" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -9834,7 +9838,7 @@
     </row>
     <row r="68" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -10250,7 +10254,7 @@
     </row>
     <row r="78" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -10558,7 +10562,7 @@
     </row>
     <row r="86" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -10740,7 +10744,7 @@
     </row>
     <row r="91" s="35" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -10939,7 +10943,7 @@
     </row>
     <row r="97" s="35" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -11136,7 +11140,7 @@
     </row>
     <row r="103" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
@@ -11316,7 +11320,7 @@
     </row>
     <row r="108" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="26"/>
@@ -11498,7 +11502,7 @@
     </row>
     <row r="113" s="35" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
@@ -11885,7 +11889,7 @@
     </row>
     <row r="118" s="35" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
@@ -11931,8 +11935,12 @@
       <c r="B120" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
+      <c r="C120" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="E120" s="26"/>
       <c r="F120" s="26"/>
       <c r="G120" s="26"/>
@@ -13733,7 +13741,7 @@
     </row>
     <row r="142" s="35" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B142" s="38"/>
       <c r="C142" s="38"/>
